--- a/DATA/IsoData/OSBSIsoData.xlsx
+++ b/DATA/IsoData/OSBSIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">d50a9079-70a6-4ca3-ae9a-6aac4c891f20</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed9d71cc-2cc7-4a99-a3cc-3a2faaae77a3</t>
   </si>
   <si>
     <t xml:space="preserve">OSBS.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151251Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07d5476f-15e8-452d-ba82-177af5e8343d</t>
+    <t xml:space="preserve">20210111T174117Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f74c1794-2c61-45f7-a832-f1eea78fd609</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20180926.1125</t>
@@ -104,10 +110,10 @@
     <t xml:space="preserve">Sample ID label is missing, only barcode label is present on the sample vial</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175844Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe9ac2de-eef6-4c06-8698-0655618c4a8a</t>
+    <t xml:space="preserve">20210111T182952Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f3da6b2-d66c-45d7-bc92-0fa018da7726</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20181008.0930</t>
@@ -119,10 +125,10 @@
     <t xml:space="preserve">A00000036379</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151546Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b5cf388a-5173-4d66-a90d-a85b1205d56b</t>
+    <t xml:space="preserve">20210111T182138Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09d6781a-7c94-4888-a161-ad7b56359b11</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20181022.1239</t>
@@ -134,7 +140,7 @@
     <t xml:space="preserve">A00000036363</t>
   </si>
   <si>
-    <t xml:space="preserve">c68e2d1d-ba73-44ab-bab2-944eff6779f9</t>
+    <t xml:space="preserve">d7823735-008d-401b-ae39-47c0be43d06d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20181108.1452</t>
@@ -146,10 +152,10 @@
     <t xml:space="preserve">A00000036348</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151649Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220a19f3-898f-4f19-bc42-d54acabd617f</t>
+    <t xml:space="preserve">20210111T182232Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143a989f-0044-48a5-b16a-dd3089af2008</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20181218.0954</t>
@@ -161,10 +167,10 @@
     <t xml:space="preserve">A00000036365</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151816Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21ecce73-df69-4fd0-86e5-9d29fda21dd4</t>
+    <t xml:space="preserve">20210111T182753Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108fd34f-1fca-4509-b1d4-b9abf625bffa</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20181231.1130</t>
@@ -176,7 +182,7 @@
     <t xml:space="preserve">A00000036382</t>
   </si>
   <si>
-    <t xml:space="preserve">a1f06fdd-eace-4124-abfa-36e0d3883ee3</t>
+    <t xml:space="preserve">0d37ac42-ca4d-49ad-989a-aedce5ac032c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190116.1052</t>
@@ -188,10 +194,10 @@
     <t xml:space="preserve">A00000036344</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152054Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8bb92d73-fe5f-4dfc-8a9a-ba48314bf9de</t>
+    <t xml:space="preserve">20210111T182019Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e28ec128-7b64-4310-8c13-32c01f11fb42</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190204.1054</t>
@@ -203,10 +209,10 @@
     <t xml:space="preserve">A00000036498</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152240Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5789f5e8-b77e-4a1f-97ff-b725b86c8351</t>
+    <t xml:space="preserve">20210111T173138Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c589dc8-5d6d-4817-a565-6b3e9a7728d4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190328.0933</t>
@@ -218,10 +224,10 @@
     <t xml:space="preserve">A00000036515</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152437Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0450943-f90b-4ae3-83fb-e708ac79f826</t>
+    <t xml:space="preserve">20210111T173344Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06a9c2e5-6479-47e3-b0b9-b7bf64d77501</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190408.1208</t>
@@ -233,10 +239,10 @@
     <t xml:space="preserve">A00000036448</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152621Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b5f18ce5-b32d-4482-b4fc-32388c4ff8bc</t>
+    <t xml:space="preserve">20210111T172552Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287ac512-85a7-45f6-b1e0-78f93db38d4f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190425.1002</t>
@@ -248,7 +254,7 @@
     <t xml:space="preserve">A00000036516</t>
   </si>
   <si>
-    <t xml:space="preserve">409d029d-525b-4d1f-9681-9f0dd8bbe7b7</t>
+    <t xml:space="preserve">2dff020d-68f7-4405-bd35-4abb450f32b3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190509.0939</t>
@@ -260,10 +266,10 @@
     <t xml:space="preserve">A00000036449</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151146Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">537635c6-8536-4466-ad85-9baf7658affc</t>
+    <t xml:space="preserve">20210111T172554Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67a618f4-9353-4862-afc1-27860a821cff</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190522.1135</t>
@@ -275,7 +281,7 @@
     <t xml:space="preserve">A00000036534</t>
   </si>
   <si>
-    <t xml:space="preserve">32690309-8a1c-4072-aa08-fe1981872de3</t>
+    <t xml:space="preserve">44667fc4-8341-4367-9561-af3396b5fe79</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190604.0909</t>
@@ -287,10 +293,10 @@
     <t xml:space="preserve">A00000074782</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175409Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351464e8-ca0a-4e5e-a999-9b9c5902bb10</t>
+    <t xml:space="preserve">20210111T182900Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d347e6d8-a5aa-4223-808c-2e4b78a47030</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190620.1048</t>
@@ -302,7 +308,7 @@
     <t xml:space="preserve">A00000037776</t>
   </si>
   <si>
-    <t xml:space="preserve">1c688c95-491a-46e3-acca-9167638e72b6</t>
+    <t xml:space="preserve">f2adeb68-cde6-4f09-9e24-397a101515f2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190703.0916</t>
@@ -314,10 +320,10 @@
     <t xml:space="preserve">A00000037793</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175601Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a596dca-d550-477d-824e-eca24b0c9a33</t>
+    <t xml:space="preserve">20210111T182533Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10e706a0-9bcb-42a3-a752-1730b9419068</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190715.1406</t>
@@ -329,7 +335,7 @@
     <t xml:space="preserve">A00000036484</t>
   </si>
   <si>
-    <t xml:space="preserve">761666d3-4251-4951-a185-60e79a81ee98</t>
+    <t xml:space="preserve">a332a0c3-fae3-4556-8013-998bc9924350</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190801.0900</t>
@@ -341,10 +347,10 @@
     <t xml:space="preserve">A00000036452</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175750Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8d51b9d7-0ea6-4076-87d5-896c08af25b8</t>
+    <t xml:space="preserve">20210111T183210Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1a8600c-f553-4dab-b37b-b4de590f0d92</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190814.0926</t>
@@ -356,7 +362,7 @@
     <t xml:space="preserve">A00000036519</t>
   </si>
   <si>
-    <t xml:space="preserve">b92f6dae-815c-48ea-8a3d-d21f33dbd118</t>
+    <t xml:space="preserve">a1a039bf-ac95-4ccc-b2a9-e20469e014d1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190828.1015</t>
@@ -368,7 +374,7 @@
     <t xml:space="preserve">A00000036469</t>
   </si>
   <si>
-    <t xml:space="preserve">f385cb3e-6c10-4a9f-b76e-1aa50236fb9d</t>
+    <t xml:space="preserve">2866c6f3-18df-45ef-b59b-6bc66b019f37</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190911.0933</t>
@@ -380,10 +386,10 @@
     <t xml:space="preserve">A00000036453</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151507Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11c6952c-6cbb-4550-8cdf-210df9fc7df5</t>
+    <t xml:space="preserve">20210111T181653Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e95e38fe-f178-4cbd-979e-3978da6678f3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20190925.0936</t>
@@ -395,7 +401,7 @@
     <t xml:space="preserve">A00000036537</t>
   </si>
   <si>
-    <t xml:space="preserve">497ea63c-5429-4be7-b853-b92116d2b61c</t>
+    <t xml:space="preserve">3d9ebb52-0721-4788-885c-dcaa238580cf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191010.0949</t>
@@ -410,10 +416,10 @@
     <t xml:space="preserve">no parafilm</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151630Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70df757f-b648-4823-85da-16b5f36a11f8</t>
+    <t xml:space="preserve">20210111T183059Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8574c46d-b02b-4176-8bf6-a49881cc290a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191023.1209</t>
@@ -425,7 +431,7 @@
     <t xml:space="preserve">A00000036470</t>
   </si>
   <si>
-    <t xml:space="preserve">bf771d28-0ec4-4cad-8ac6-dea77d53fa8a</t>
+    <t xml:space="preserve">27190730-ae3c-491e-bdf2-3e3992323f5b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191106.0818</t>
@@ -437,10 +443,10 @@
     <t xml:space="preserve">A00000128858</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151725Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7986c6c4-a4cd-4b58-9b9c-f7d6dc8e77de</t>
+    <t xml:space="preserve">20210111T184146Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633719a3-fc8b-46c2-8af1-e226909b0b4d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191120.1330</t>
@@ -452,7 +458,7 @@
     <t xml:space="preserve">A00000036505</t>
   </si>
   <si>
-    <t xml:space="preserve">75513801-51b9-4685-9fa1-b33d22101373</t>
+    <t xml:space="preserve">6e5dbc2d-61f8-47b5-9252-196a4349d95f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191204.1155</t>
@@ -464,10 +470,10 @@
     <t xml:space="preserve">A00000129483</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151854Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f55209e5-d002-4d37-8880-ce06c9a06c4a</t>
+    <t xml:space="preserve">20210111T183249Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d93da04a-bb0d-42f5-a4c2-35a5574d122a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20191218.1221</t>
@@ -479,7 +485,7 @@
     <t xml:space="preserve">A00000036454</t>
   </si>
   <si>
-    <t xml:space="preserve">df140b98-8a03-4c34-8e80-f5a03d3e1863</t>
+    <t xml:space="preserve">0999df0c-f66b-444b-aa65-a65420220f3d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20200102.0915</t>
@@ -494,10 +500,13 @@
     <t xml:space="preserve">Parafilm missing</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152300Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f598e2c1-c88d-4b07-87f6-236c4349eab9</t>
+    <t xml:space="preserve">20210111T172950Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e3568b98-42f4-4e24-9b9f-989ebe8c1829</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20200113.1106</t>
@@ -509,7 +518,7 @@
     <t xml:space="preserve">A00000128841</t>
   </si>
   <si>
-    <t xml:space="preserve">42a705ff-1339-4b25-8979-2e395b51121f</t>
+    <t xml:space="preserve">67dedbc7-b3e6-4c0e-8a2a-d73b56d2454f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20200130.0841</t>
@@ -521,7 +530,7 @@
     <t xml:space="preserve">A00000036472</t>
   </si>
   <si>
-    <t xml:space="preserve">be455eda-8ba9-445d-b152-26b6f4a01ff3</t>
+    <t xml:space="preserve">e0f3c6be-174b-4bc1-bf1a-78fd367c7211</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.OSBS.20200210.1251</t>
@@ -533,7 +542,55 @@
     <t xml:space="preserve">A00000129556</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T135417Z</t>
+    <t xml:space="preserve">20210111T173142Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71f23f41-05cc-44b4-8e4d-f10ed3b2a618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200226.0901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200226.0901.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000129549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Damaged or Lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parafilm missing loose cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e1dc858-bea6-431d-beae-4caaf77515ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200311.0950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200311.0950.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000036543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T172500Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82292798-dee6-45db-99d1-3608cceff20f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200701.0846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.OSBS.20200701.0846.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000131228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T182654Z</t>
   </si>
 </sst>
 </file>
@@ -871,7 +928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -925,23 +982,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>42928.6083333333</v>
@@ -962,35 +1022,38 @@
         <v>0.093</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>42956.5</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43356.8055555556</v>
@@ -1011,37 +1074,40 @@
         <v>0.118</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43417.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43369.6666666667</v>
@@ -1062,35 +1128,38 @@
         <v>0.385</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43381.6965277778</v>
@@ -1111,35 +1180,38 @@
         <v>0.343</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43395.7118055556</v>
@@ -1160,35 +1232,38 @@
         <v>0.243</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43438.6979166667</v>
@@ -1209,35 +1284,38 @@
         <v>0.581</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43452.3506944444</v>
@@ -1258,35 +1336,38 @@
         <v>0.093</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43465.6965277778</v>
@@ -1307,35 +1388,38 @@
         <v>0.333</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43482.6701388889</v>
@@ -1356,35 +1440,38 @@
         <v>0.144</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43500.6763888889</v>
@@ -1405,35 +1492,38 @@
         <v>0.152</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43552.5784722222</v>
@@ -1454,35 +1544,38 @@
         <v>0.298</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43563.6902777778</v>
@@ -1503,35 +1596,38 @@
         <v>0.108</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43580.5861111111</v>
@@ -1552,35 +1648,38 @@
         <v>0.127</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43594.5743055556</v>
@@ -1601,35 +1700,38 @@
         <v>0.109</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43607.6701388889</v>
@@ -1650,35 +1752,38 @@
         <v>0.393</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43620.5520833333</v>
@@ -1699,35 +1804,38 @@
         <v>0.078</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43636.6166666667</v>
@@ -1748,35 +1856,38 @@
         <v>0.125</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43649.5736111111</v>
@@ -1797,35 +1908,38 @@
         <v>0.286</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43661.7805555556</v>
@@ -1846,35 +1960,38 @@
         <v>0.157</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43678.5486111111</v>
@@ -1895,35 +2012,38 @@
         <v>0.237</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43691.5729166667</v>
@@ -1944,35 +2064,38 @@
         <v>0.093</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43705.6138888889</v>
@@ -1993,35 +2116,38 @@
         <v>0.116</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43719.5930555556</v>
@@ -2042,35 +2168,38 @@
         <v>0.175</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43733.5888888889</v>
@@ -2091,37 +2220,40 @@
         <v>0.103</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>43748.5847222222</v>
@@ -2142,35 +2274,38 @@
         <v>0.113</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>43761.1895833333</v>
@@ -2191,37 +2326,40 @@
         <v>0.1</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>43775.5708333333</v>
@@ -2242,35 +2380,38 @@
         <v>0.049</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>43789.7805555556</v>
@@ -2291,37 +2432,40 @@
         <v>0.063</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q29" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>43803.7263888889</v>
@@ -2342,35 +2486,38 @@
         <v>0.234</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>43817.7430555556</v>
@@ -2391,37 +2538,40 @@
         <v>0.09</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q31" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="R31" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>43832.5986111111</v>
@@ -2442,35 +2592,38 @@
         <v>0.168</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P32"/>
       <c r="Q32" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="R32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>43843.6840277778</v>
@@ -2491,35 +2644,38 @@
         <v>0.138</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="R33" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>43860.5701388889</v>
@@ -2540,19 +2696,182 @@
         <v>0.124</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q34" t="s">
-        <v>173</v>
+        <v>176</v>
+      </c>
+      <c r="R34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>43871.74375</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>43887.5840277778</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.753</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>176</v>
+      </c>
+      <c r="R35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>43887.5888888889</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>43901.5763888889</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-29.433</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O36" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>187</v>
+      </c>
+      <c r="R36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>43997.5722222222</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44013.5319444444</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-2.786</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-15.442</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>192</v>
+      </c>
+      <c r="R37" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
